--- a/Database/test/website/exercicio.xlsx
+++ b/Database/test/website/exercicio.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adalb\Documents\PECIProjeto\Gym-Home\Database\test\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Documentos\3ano1sem\PECI\Gym-Home\Database\test\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193B934-C36E-4EB6-BC57-0B6D154C3DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09424DDE-70E0-4249-A59E-58D616BBBBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1176" windowWidth="17280" windowHeight="8964" xr2:uid="{28CE91F6-BF0B-4DB3-906A-F5FB610161FE}"/>
+    <workbookView xWindow="3540" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{28CE91F6-BF0B-4DB3-906A-F5FB610161FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Ponte</t>
   </si>
@@ -44,54 +44,21 @@
     <t>Força</t>
   </si>
   <si>
-    <t>20s</t>
-  </si>
-  <si>
     <t>Agachamento na cadeira</t>
   </si>
   <si>
     <t>Deite-se de bruços no chão, numa superfície plana. Levante o corpo apoiando-se sobre as pontas dos pés e os antebraços (mantendo-os paralelos, à frente da cabeça). Todo o corpo deve permanecer suspenso, formando uma espécie de triângulo retângulo.</t>
   </si>
   <si>
-    <t>12x</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF5B5B5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Com uma cadeira, faça movimentos de sentar e levantar. Tente fazer com que o movimento de assentar não seja muito rápido, fortalecendo a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF5B5B5F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> musculatura trabalhada.</t>
-    </r>
-  </si>
-  <si>
     <t>Agachamento na parede (isométrico)</t>
   </si>
   <si>
-    <t>40S</t>
-  </si>
-  <si>
     <t>O agachamento isométrico é bem simples. Basta sentar-se “no vazio”, apoiando as costas na parede e buscando manter os joelhos flexionados em um ângulo de 90º.</t>
   </si>
   <si>
     <t>stiff unilateral</t>
   </si>
   <si>
-    <t>12x cada lado</t>
-  </si>
-  <si>
     <t> Exercício muito completo,  trabalha a parte de trás da coxa e os glúteos, além dos músculos que atuam estabilizando a coluna e o dorso;</t>
   </si>
   <si>
@@ -104,9 +71,6 @@
     <t>Abdominal</t>
   </si>
   <si>
-    <t>15x</t>
-  </si>
-  <si>
     <t>Deite-se de barriga para cima, dobre as pernas, cruze os braços em X sobre o troco e inicie os movimentos de elevação do troco em direção dos joelhos.</t>
   </si>
   <si>
@@ -116,27 +80,18 @@
     <t>Resistência</t>
   </si>
   <si>
-    <t>20x</t>
-  </si>
-  <si>
     <t>Pular corda exige um pouco mais de coordenação motora e condicionamento do que outros exercícios.</t>
   </si>
   <si>
     <t>Corrida estacionária</t>
   </si>
   <si>
-    <t>3m</t>
-  </si>
-  <si>
     <t>A corrida ou marcha estacionária é um exercício no qual você simula os movimentos como se estivesse correndo, mas sem sair do lugar. </t>
   </si>
   <si>
     <t>Tríceps no banco</t>
   </si>
   <si>
-    <t>12X</t>
-  </si>
-  <si>
     <t>O tríceps no banco é considerado um movimento bem completo, já que estimula todas as cabeças do tríceps e o peitoral. </t>
   </si>
   <si>
@@ -149,9 +104,6 @@
     <t>Para realizar esse movimento, é preciso deitar com as costas encostadas no chão e, com os pés para cima, simular pedalar em uma bicicleta. </t>
   </si>
   <si>
-    <t>40X</t>
-  </si>
-  <si>
     <t>Excelente exercício calisténico para trabalhar a nossa musculatura superior enfatizando os dorsais.</t>
   </si>
   <si>
@@ -164,18 +116,12 @@
     <t>Quadríceps</t>
   </si>
   <si>
-    <t>15X</t>
-  </si>
-  <si>
     <t>Com o passar do tempo então, vamos perdendo nossa mobilidade e firmeza, garantir que se tenha a capacidade de manter uma rotina flexível é essencial.</t>
   </si>
   <si>
     <t>Spine Twist</t>
   </si>
   <si>
-    <t>18x</t>
-  </si>
-  <si>
     <t>Todo mundo sabe o quanto é importante praticar exercícios e o quanto eles são fundamentais para estimular várias áreas de nossas vidas</t>
   </si>
   <si>
@@ -186,13 +132,16 @@
   </si>
   <si>
     <t>Elevações</t>
+  </si>
+  <si>
+    <t>Com uma cadeira, faça movimentos de sentar e levantar. Tente fazer com que o movimento de assentar não seja muito rápido, fortalecendo a musculatura trabalhada.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,22 +150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF5B5B5F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF5B5B5F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,10 +184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,226 +503,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF0EC5-0C20-4531-8E9B-9DC6FEC072A9}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4">
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="C5">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
